--- a/input_xlsx/RS_2019-03-01.xlsx
+++ b/input_xlsx/RS_2019-03-01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tambora\New folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -23,7 +28,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -623,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -663,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -703,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -783,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="T1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +821,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -856,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -896,7 +901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -976,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1065,7 +1070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1425,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="R1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1498,7 +1503,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1538,7 +1543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1578,7 +1583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1698,7 +1703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1738,7 +1743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1778,7 +1783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1818,7 +1823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1858,7 +1863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="J1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1890,7 +1895,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1930,7 +1935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1970,7 +1975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1993,7 +1998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2033,7 +2038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2113,7 +2118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2193,7 +2198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2238,7 +2243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="222">
   <si>
     <t>parentEventID</t>
   </si>
@@ -2916,22 +2921,13 @@
     <t>USU-2011VP-RS012-ST002-MA048</t>
   </si>
   <si>
-    <t>USU-2011VP-RS012-ST002-MA049</t>
-  </si>
-  <si>
-    <t>USU-2011VP-RS012-ST002-MA050</t>
-  </si>
-  <si>
-    <t>absent</t>
-  </si>
-  <si>
     <t>Prof. Dr. Ing Ternala A. Barus, M. Sc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -3143,6 +3139,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3469,10 +3468,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
@@ -3666,11 +3665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="R91" sqref="R91"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6869,7 +6868,7 @@
         <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>164</v>
@@ -6886,11 +6885,14 @@
       <c r="L68" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="N68">
+        <v>0.08</v>
+      </c>
       <c r="O68" s="7" t="s">
         <v>172</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="Q68" t="s">
         <v>166</v>
@@ -6913,7 +6915,7 @@
         <v>111</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>164</v>
@@ -6931,7 +6933,7 @@
         <v>55</v>
       </c>
       <c r="N69">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>172</v>
@@ -6960,7 +6962,7 @@
         <v>111</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>164</v>
@@ -6978,7 +6980,7 @@
         <v>55</v>
       </c>
       <c r="N70">
-        <v>0.27</v>
+        <v>0.215</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>172</v>
@@ -7007,10 +7009,10 @@
         <v>111</v>
       </c>
       <c r="F71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I71" s="8">
         <v>5.8757777999999998</v>
@@ -7025,7 +7027,7 @@
         <v>55</v>
       </c>
       <c r="N71">
-        <v>0.215</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>172</v>
@@ -7053,11 +7055,11 @@
       <c r="E72" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F72" t="s">
-        <v>134</v>
+      <c r="F72" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I72" s="8">
         <v>5.8757777999999998</v>
@@ -7072,7 +7074,7 @@
         <v>55</v>
       </c>
       <c r="N72">
-        <v>4.4999999999999998E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>172</v>
@@ -7100,8 +7102,8 @@
       <c r="E73" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>136</v>
+      <c r="F73" t="s">
+        <v>135</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>164</v>
@@ -7119,7 +7121,7 @@
         <v>55</v>
       </c>
       <c r="N73">
-        <v>0.14499999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>172</v>
@@ -7148,10 +7150,10 @@
         <v>111</v>
       </c>
       <c r="F74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I74" s="8">
         <v>5.8757777999999998</v>
@@ -7166,7 +7168,7 @@
         <v>55</v>
       </c>
       <c r="N74">
-        <v>0.105</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="O74" s="7" t="s">
         <v>172</v>
@@ -7195,10 +7197,10 @@
         <v>111</v>
       </c>
       <c r="F75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I75" s="8">
         <v>5.8757777999999998</v>
@@ -7213,7 +7215,7 @@
         <v>55</v>
       </c>
       <c r="N75">
-        <v>0.22500000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>172</v>
@@ -7242,7 +7244,7 @@
         <v>111</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>164</v>
@@ -7260,7 +7262,7 @@
         <v>55</v>
       </c>
       <c r="N76">
-        <v>0.04</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O76" s="7" t="s">
         <v>172</v>
@@ -7289,7 +7291,7 @@
         <v>111</v>
       </c>
       <c r="F77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>164</v>
@@ -7307,7 +7309,7 @@
         <v>55</v>
       </c>
       <c r="N77">
-        <v>7.4999999999999997E-2</v>
+        <v>0.16</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>172</v>
@@ -7336,7 +7338,7 @@
         <v>111</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>164</v>
@@ -7354,7 +7356,7 @@
         <v>55</v>
       </c>
       <c r="N78">
-        <v>0.16</v>
+        <v>0.185</v>
       </c>
       <c r="O78" s="7" t="s">
         <v>172</v>
@@ -7383,7 +7385,7 @@
         <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>164</v>
@@ -7401,7 +7403,7 @@
         <v>55</v>
       </c>
       <c r="N79">
-        <v>0.185</v>
+        <v>0.16</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>172</v>
@@ -7430,7 +7432,7 @@
         <v>111</v>
       </c>
       <c r="F80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>164</v>
@@ -7448,7 +7450,7 @@
         <v>55</v>
       </c>
       <c r="N80">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="O80" s="7" t="s">
         <v>172</v>
@@ -7477,7 +7479,7 @@
         <v>111</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>164</v>
@@ -7495,7 +7497,7 @@
         <v>55</v>
       </c>
       <c r="N81">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>172</v>
@@ -7524,7 +7526,7 @@
         <v>111</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>164</v>
@@ -7542,7 +7544,7 @@
         <v>55</v>
       </c>
       <c r="N82">
-        <v>7.0000000000000007E-2</v>
+        <v>0.26</v>
       </c>
       <c r="O82" s="7" t="s">
         <v>172</v>
@@ -7571,7 +7573,7 @@
         <v>111</v>
       </c>
       <c r="F83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>164</v>
@@ -7589,7 +7591,7 @@
         <v>55</v>
       </c>
       <c r="N83">
-        <v>0.26</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>172</v>
@@ -7618,10 +7620,10 @@
         <v>111</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I84" s="8">
         <v>5.8757777999999998</v>
@@ -7636,7 +7638,7 @@
         <v>55</v>
       </c>
       <c r="N84">
-        <v>0.14499999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>172</v>
@@ -7665,7 +7667,7 @@
         <v>111</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>165</v>
@@ -7683,7 +7685,7 @@
         <v>55</v>
       </c>
       <c r="N85">
-        <v>3.5000000000000003E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>172</v>
@@ -7712,10 +7714,10 @@
         <v>111</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I86" s="8">
         <v>5.8757777999999998</v>
@@ -7730,7 +7732,7 @@
         <v>55</v>
       </c>
       <c r="N86">
-        <v>5.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="O86" s="7" t="s">
         <v>172</v>
@@ -7759,7 +7761,7 @@
         <v>111</v>
       </c>
       <c r="F87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>164</v>
@@ -7777,7 +7779,7 @@
         <v>55</v>
       </c>
       <c r="N87">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>172</v>
@@ -7806,7 +7808,7 @@
         <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>164</v>
@@ -7824,7 +7826,7 @@
         <v>55</v>
       </c>
       <c r="N88">
-        <v>0.11</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O88" s="7" t="s">
         <v>172</v>
@@ -7853,7 +7855,7 @@
         <v>111</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>164</v>
@@ -7871,7 +7873,7 @@
         <v>55</v>
       </c>
       <c r="N89">
-        <v>0.16500000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>172</v>
@@ -7900,10 +7902,10 @@
         <v>111</v>
       </c>
       <c r="F90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I90" s="8">
         <v>5.8757777999999998</v>
@@ -7918,7 +7920,7 @@
         <v>55</v>
       </c>
       <c r="N90">
-        <v>0.155</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="O90" s="7" t="s">
         <v>172</v>
@@ -7947,10 +7949,10 @@
         <v>111</v>
       </c>
       <c r="F91" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I91" s="8">
         <v>5.8757777999999998</v>
@@ -7965,7 +7967,7 @@
         <v>55</v>
       </c>
       <c r="N91">
-        <v>0.20499999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>172</v>
@@ -7994,7 +7996,7 @@
         <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>164</v>
@@ -8011,11 +8013,14 @@
       <c r="L92" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="N92">
+        <v>0.115</v>
+      </c>
       <c r="O92" s="7" t="s">
         <v>172</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="Q92" t="s">
         <v>166</v>
@@ -8038,7 +8043,7 @@
         <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>164</v>
@@ -8056,7 +8061,7 @@
         <v>55</v>
       </c>
       <c r="N93">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O93" s="7" t="s">
         <v>172</v>
@@ -8085,10 +8090,10 @@
         <v>111</v>
       </c>
       <c r="F94" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I94" s="8">
         <v>5.8757777999999998</v>
@@ -8103,7 +8108,7 @@
         <v>55</v>
       </c>
       <c r="N94">
-        <v>0.115</v>
+        <v>0.01</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>172</v>
@@ -8132,7 +8137,7 @@
         <v>111</v>
       </c>
       <c r="F95" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>164</v>
@@ -8150,7 +8155,7 @@
         <v>55</v>
       </c>
       <c r="N95">
-        <v>7.0000000000000007E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O95" s="7" t="s">
         <v>172</v>
@@ -8178,8 +8183,8 @@
       <c r="E96" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F96" t="s">
-        <v>158</v>
+      <c r="F96" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>165</v>
@@ -8197,7 +8202,7 @@
         <v>55</v>
       </c>
       <c r="N96">
-        <v>0.01</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>172</v>
@@ -8226,7 +8231,7 @@
         <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>164</v>
@@ -8244,7 +8249,7 @@
         <v>55</v>
       </c>
       <c r="N97">
-        <v>2.5000000000000001E-2</v>
+        <v>0.18</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>172</v>
@@ -8272,11 +8277,11 @@
       <c r="E98" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>160</v>
+      <c r="F98" t="s">
+        <v>162</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I98" s="8">
         <v>5.8757777999999998</v>
@@ -8291,7 +8296,7 @@
         <v>55</v>
       </c>
       <c r="N98">
-        <v>0.13500000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>172</v>
@@ -8319,8 +8324,8 @@
       <c r="E99" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F99" t="s">
-        <v>161</v>
+      <c r="F99" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>164</v>
@@ -8338,7 +8343,7 @@
         <v>55</v>
       </c>
       <c r="N99">
-        <v>0.18</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>172</v>
@@ -8347,100 +8352,6 @@
         <v>167</v>
       </c>
       <c r="Q99" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="18">
-      <c r="A100" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F100" t="s">
-        <v>162</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I100" s="8">
-        <v>5.8757777999999998</v>
-      </c>
-      <c r="J100" s="8">
-        <v>95.259666699999997</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N100">
-        <v>0.05</v>
-      </c>
-      <c r="O100" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P100" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="18">
-      <c r="A101" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D101" t="s">
-        <v>50</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I101" s="8">
-        <v>5.8757777999999998</v>
-      </c>
-      <c r="J101" s="8">
-        <v>95.259666699999997</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N101">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="O101" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P101" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q101" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8452,7 +8363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -8519,7 +8430,7 @@
         <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -8545,10 +8456,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
